--- a/8. SUMIFS_COUNTIFS.xlsx
+++ b/8. SUMIFS_COUNTIFS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8948B78-EA26-490E-9F1B-386142106705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93248B0-0847-4503-B7D1-9E73342283E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8451049B-4116-4371-9249-12DD07DB1CEB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8451049B-4116-4371-9249-12DD07DB1CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -901,7 +901,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> amount spent on products in each Electronic and Accessories categories separately.</a:t>
+            <a:t> amount spent on products in each Electronics and Accessories categories separately.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1294,30 +1294,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D095C8E-7CBA-45B7-B7FE-172CA6C50FEB}">
   <dimension ref="A6:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:P17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>73</v>
       </c>
@@ -1889,13 +1889,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>COUNTIF(B7:B16, "A*") + COUNTIF(B7:B16, "E*")+ COUNTIF(B7:B16, "I*") +  COUNTIF(B7:B16, "O*") +  COUNTIF(B7:B16, "U*")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>68</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>20</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>26</v>
       </c>

--- a/8. SUMIFS_COUNTIFS.xlsx
+++ b/8. SUMIFS_COUNTIFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93248B0-0847-4503-B7D1-9E73342283E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EA0C14-E606-4FC8-AE5A-770724A38F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8451049B-4116-4371-9249-12DD07DB1CEB}"/>
   </bookViews>
@@ -290,12 +290,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -323,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -333,6 +339,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1292,9 +1299,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D095C8E-7CBA-45B7-B7FE-172CA6C50FEB}">
-  <dimension ref="A6:O34"/>
+  <dimension ref="A6:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -1903,7 +1910,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>20</v>
       </c>
@@ -1912,7 +1919,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>26</v>
       </c>
@@ -1920,6 +1927,9 @@
         <f>SUMIF(F7:F16,"Accessories",M7:M16)</f>
         <v>870</v>
       </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/8. SUMIFS_COUNTIFS.xlsx
+++ b/8. SUMIFS_COUNTIFS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EA0C14-E606-4FC8-AE5A-770724A38F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE09D89-B3ED-4F7A-A822-E7774880BA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8451049B-4116-4371-9249-12DD07DB1CEB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>Order_ID</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>No. of emails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -290,18 +293,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -339,7 +336,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1299,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D095C8E-7CBA-45B7-B7FE-172CA6C50FEB}">
-  <dimension ref="A6:O35"/>
+  <dimension ref="A6:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1931,6 +1928,11 @@
     <row r="35" spans="5:8" x14ac:dyDescent="0.3">
       <c r="H35" s="5"/>
     </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/8. SUMIFS_COUNTIFS.xlsx
+++ b/8. SUMIFS_COUNTIFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE09D89-B3ED-4F7A-A822-E7774880BA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DC05AA-2C8C-4BAB-BF9F-F58F2F332633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8451049B-4116-4371-9249-12DD07DB1CEB}"/>
   </bookViews>
@@ -326,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -336,7 +336,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,7 +829,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> with a vowel. </a:t>
+            <a:t> with a vowel. .</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1907,7 +1906,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>20</v>
       </c>
@@ -1916,7 +1915,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>26</v>
       </c>
@@ -1925,10 +1924,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="H35" s="5"/>
-    </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G40" t="s">
         <v>76</v>
       </c>

--- a/8. SUMIFS_COUNTIFS.xlsx
+++ b/8. SUMIFS_COUNTIFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DC05AA-2C8C-4BAB-BF9F-F58F2F332633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CFEDDE-25B3-48B3-AD73-7AA7F1FAA1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8451049B-4116-4371-9249-12DD07DB1CEB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>Order_ID</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1301,7 @@
   <dimension ref="A6:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1906,7 +1909,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>20</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>26</v>
       </c>
@@ -1924,7 +1927,10 @@
         <v>870</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
       <c r="G40" t="s">
         <v>76</v>
       </c>

--- a/8. SUMIFS_COUNTIFS.xlsx
+++ b/8. SUMIFS_COUNTIFS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CFEDDE-25B3-48B3-AD73-7AA7F1FAA1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA60A7F-3012-4A08-85CD-1F984EF29CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8451049B-4116-4371-9249-12DD07DB1CEB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>Order_ID</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   .</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1304,7 @@
   <dimension ref="A6:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1927,6 +1930,11 @@
         <v>870</v>
       </c>
     </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>77</v>

--- a/8. SUMIFS_COUNTIFS.xlsx
+++ b/8. SUMIFS_COUNTIFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA60A7F-3012-4A08-85CD-1F984EF29CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C904A3-2E35-467B-9935-C2758266396B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8451049B-4116-4371-9249-12DD07DB1CEB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>Order_ID</t>
   </si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t xml:space="preserve">     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   .</t>
   </si>
 </sst>
 </file>
@@ -1930,11 +1927,6 @@
         <v>870</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
-        <v>78</v>
-      </c>
-    </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>77</v>

--- a/8. SUMIFS_COUNTIFS.xlsx
+++ b/8. SUMIFS_COUNTIFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C904A3-2E35-467B-9935-C2758266396B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1E5935-96DE-4542-A0D9-D2B5E218FDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8451049B-4116-4371-9249-12DD07DB1CEB}"/>
   </bookViews>
@@ -296,12 +296,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -329,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -339,6 +345,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,7 +1308,7 @@
   <dimension ref="A6:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1919,7 +1926,7 @@
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E34" t="s">
+      <c r="E34" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F34">

--- a/8. SUMIFS_COUNTIFS.xlsx
+++ b/8. SUMIFS_COUNTIFS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1E5935-96DE-4542-A0D9-D2B5E218FDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2794E1E6-2C84-49A7-BE63-BA77900CD7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8451049B-4116-4371-9249-12DD07DB1CEB}"/>
   </bookViews>
@@ -1308,7 +1308,7 @@
   <dimension ref="A6:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1917,7 +1917,7 @@
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E33" t="s">
+      <c r="E33" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F33">
